--- a/Model/BABA.xlsx
+++ b/Model/BABA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Documents\GitHub\modelz\Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Documents\GitHub\models\modelz\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77AC3DBF-10DC-440F-8390-04F9A2486773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1C25BE-96E0-45B1-9700-1F65096B593B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9075" yWindow="135" windowWidth="23865" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -155,11 +155,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -555,7 +555,7 @@
   <dimension ref="B2:O45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +573,7 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C2">
-        <f t="shared" ref="C2:D2" si="0">+D2-1</f>
+        <f t="shared" ref="C2" si="0">+D2-1</f>
         <v>2020</v>
       </c>
       <c r="D2">
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:N3" si="1">+SUM(K4:K7)</f>
+        <f t="shared" ref="K3" si="1">+SUM(K4:K7)</f>
         <v>0</v>
       </c>
       <c r="L3" s="2">
@@ -835,11 +835,11 @@
         <v>16</v>
       </c>
       <c r="M11" s="6">
-        <f>+M3/L3-1</f>
+        <f t="shared" ref="M11:N15" si="3">+M3/L3-1</f>
         <v>1.8316370908562307E-2</v>
       </c>
       <c r="N11" s="6">
-        <f>+N3/M3-1</f>
+        <f t="shared" si="3"/>
         <v>8.3437417619925291E-2</v>
       </c>
     </row>
@@ -861,11 +861,11 @@
         <v>COGS</v>
       </c>
       <c r="M12" s="6">
-        <f>+M4/L4-1</f>
+        <f t="shared" si="3"/>
         <v>1.8991565483362782E-2</v>
       </c>
       <c r="N12" s="6">
-        <f>+N4/M4-1</f>
+        <f t="shared" si="3"/>
         <v>6.6633314838228541E-2</v>
       </c>
     </row>
@@ -875,25 +875,25 @@
         <v>RD</v>
       </c>
       <c r="M13" s="6">
-        <f>+M5/L5-1</f>
+        <f t="shared" si="3"/>
         <v>2.3059587127016945E-2</v>
       </c>
       <c r="N13" s="6">
-        <f>+N5/M5-1</f>
+        <f t="shared" si="3"/>
         <v>-7.9092062596926582E-2</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E14" s="5">
-        <f t="shared" ref="E14:G14" si="3">+E3/$E$3</f>
+        <f t="shared" ref="E14:G14" si="4">+E3/$E$3</f>
         <v>1</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.018767510376215</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1125218554676166</v>
       </c>
       <c r="I14" t="str">
@@ -901,11 +901,11 @@
         <v>Sales</v>
       </c>
       <c r="M14" s="6">
-        <f>+M6/L6-1</f>
+        <f t="shared" si="3"/>
         <v>-0.13608627784872995</v>
       </c>
       <c r="N14" s="6">
-        <f>+N6/M6-1</f>
+        <f t="shared" si="3"/>
         <v>0.11251642575558485</v>
       </c>
     </row>
@@ -914,15 +914,15 @@
         <v>1</v>
       </c>
       <c r="E15" s="5">
-        <f>+E4/$E$3</f>
+        <f t="shared" ref="E15:G23" si="5">+E4/$E$3</f>
         <v>0.47060008517747681</v>
       </c>
       <c r="F15" s="5">
-        <f>+F4/$E$3</f>
+        <f t="shared" si="5"/>
         <v>0.4523887465006618</v>
       </c>
       <c r="G15" s="5">
-        <f>+G4/$E$3</f>
+        <f t="shared" si="5"/>
         <v>0.47613224186462039</v>
       </c>
       <c r="I15" t="str">
@@ -930,11 +930,11 @@
         <v>GA</v>
       </c>
       <c r="M15" s="6">
-        <f>+M7/L7-1</f>
+        <f t="shared" si="3"/>
         <v>0.3214397594135705</v>
       </c>
       <c r="N15" s="6">
-        <f>+N7/M7-1</f>
+        <f t="shared" si="3"/>
         <v>-4.6938340089609509E-3</v>
       </c>
     </row>
@@ -943,15 +943,15 @@
         <v>3</v>
       </c>
       <c r="E16" s="5">
-        <f>+E5/$E$3</f>
+        <f t="shared" si="5"/>
         <v>0.45197052289993178</v>
       </c>
       <c r="F16" s="5">
-        <f>+F5/$E$3</f>
+        <f t="shared" si="5"/>
         <v>0.43284171988434256</v>
       </c>
       <c r="G16" s="5">
-        <f>+G5/$E$3</f>
+        <f t="shared" si="5"/>
         <v>0.45371129652600706</v>
       </c>
     </row>
@@ -960,15 +960,15 @@
         <v>4</v>
       </c>
       <c r="E17" s="5">
-        <f>+E6/$E$3</f>
+        <f t="shared" si="5"/>
         <v>1.8629562277545007E-2</v>
       </c>
       <c r="F17" s="5">
-        <f>+F6/$E$3</f>
+        <f t="shared" si="5"/>
         <v>1.9547026616319262E-2</v>
       </c>
       <c r="G17" s="5">
-        <f>+G6/$E$3</f>
+        <f t="shared" si="5"/>
         <v>2.2420945338613316E-2</v>
       </c>
     </row>
@@ -977,15 +977,15 @@
         <v>2</v>
       </c>
       <c r="E18" s="5">
-        <f>+E7/$E$3</f>
+        <f t="shared" si="5"/>
         <v>0.1116897875708763</v>
       </c>
       <c r="F18" s="5">
-        <f>+F7/$E$3</f>
+        <f t="shared" si="5"/>
         <v>0.11331122514334012</v>
       </c>
       <c r="G18" s="5">
-        <f>+G7/$E$3</f>
+        <f t="shared" si="5"/>
         <v>0.11646104006297441</v>
       </c>
     </row>
@@ -994,15 +994,15 @@
         <v>5</v>
       </c>
       <c r="E19" s="5">
-        <f>+E8/$E$3</f>
+        <f t="shared" si="5"/>
         <v>6.8081765998421265E-2</v>
       </c>
       <c r="F19" s="5">
-        <f>+F8/$E$3</f>
+        <f t="shared" si="5"/>
         <v>7.7191814641548437E-2</v>
       </c>
       <c r="G19" s="5">
-        <f>+G8/$E$3</f>
+        <f t="shared" si="5"/>
         <v>0.11232697640759065</v>
       </c>
     </row>
@@ -1011,15 +1011,15 @@
         <v>6</v>
       </c>
       <c r="E20" s="5">
-        <f>+E9/$E$3</f>
+        <f t="shared" si="5"/>
         <v>7.3143147428198566E-2</v>
       </c>
       <c r="F20" s="5">
-        <f>+F9/$E$3</f>
+        <f t="shared" si="5"/>
         <v>8.4862166858078777E-2</v>
       </c>
       <c r="G20" s="5">
-        <f>+G9/$E$3</f>
+        <f t="shared" si="5"/>
         <v>0.10840968833583137</v>
       </c>
     </row>
@@ -1028,15 +1028,15 @@
         <v>7</v>
       </c>
       <c r="E21" s="5">
-        <f>+E10/$E$3</f>
+        <f t="shared" si="5"/>
         <v>4.9146747216678145E-2</v>
       </c>
       <c r="F21" s="5">
-        <f>+F10/$E$3</f>
+        <f t="shared" si="5"/>
         <v>5.50139207148777E-2</v>
       </c>
       <c r="G21" s="5">
-        <f>+G10/$E$3</f>
+        <f t="shared" si="5"/>
         <v>6.5472795211668225E-2</v>
       </c>
     </row>
@@ -1045,15 +1045,15 @@
         <v>8</v>
       </c>
       <c r="E22" s="5">
-        <f>+E11/$E$3</f>
+        <f t="shared" si="5"/>
         <v>1.9821827987479567E-2</v>
       </c>
       <c r="F22" s="5">
-        <f>+F11/$E$3</f>
+        <f t="shared" si="5"/>
         <v>2.019297406247297E-2</v>
       </c>
       <c r="G22" s="5">
-        <f>+G11/$E$3</f>
+        <f t="shared" si="5"/>
         <v>2.3150099574441065E-2</v>
       </c>
     </row>
@@ -1062,15 +1062,15 @@
         <v>9</v>
       </c>
       <c r="E23" s="5">
-        <f>+E12/$E$3</f>
+        <f t="shared" si="5"/>
         <v>0.20751663862086936</v>
       </c>
       <c r="F23" s="5">
-        <f>+F12/$E$3</f>
+        <f t="shared" si="5"/>
         <v>0.2158066624552353</v>
       </c>
       <c r="G23" s="5">
-        <f>+G12/$E$3</f>
+        <f t="shared" si="5"/>
         <v>0.21056901401049063</v>
       </c>
     </row>
@@ -1079,11 +1079,11 @@
         <v>1</v>
       </c>
       <c r="F25" s="5">
-        <f>+(F3/E3)-1</f>
+        <f t="shared" ref="F25:G33" si="6">+(F3/E3)-1</f>
         <v>1.8767510376215046E-2</v>
       </c>
       <c r="G25" s="5">
-        <f>+(G3/F3)-1</f>
+        <f t="shared" si="6"/>
         <v>9.2027223224638854E-2</v>
       </c>
     </row>
@@ -1092,11 +1092,11 @@
         <v>3</v>
       </c>
       <c r="F26" s="5">
-        <f>+(F4/E4)-1</f>
+        <f t="shared" si="6"/>
         <v>-3.8698120230783561E-2</v>
       </c>
       <c r="G26" s="5">
-        <f>+(G4/F4)-1</f>
+        <f t="shared" si="6"/>
         <v>5.2484717066063835E-2</v>
       </c>
     </row>
@@ -1105,11 +1105,11 @@
         <v>4</v>
       </c>
       <c r="F27" s="5">
-        <f>+(F5/E5)-1</f>
+        <f t="shared" si="6"/>
         <v>-4.232312074879363E-2</v>
       </c>
       <c r="G27" s="5">
-        <f>+(G5/F5)-1</f>
+        <f t="shared" si="6"/>
         <v>4.8215261336732818E-2</v>
       </c>
     </row>
@@ -1118,11 +1118,11 @@
         <v>2</v>
       </c>
       <c r="F28" s="5">
-        <f>+(F6/E6)-1</f>
+        <f t="shared" si="6"/>
         <v>4.924776680771048E-2</v>
       </c>
       <c r="G28" s="5">
-        <f>+(G6/F6)-1</f>
+        <f t="shared" si="6"/>
         <v>0.14702587655427357</v>
       </c>
       <c r="L28" s="2">
@@ -1140,11 +1140,11 @@
         <v>5</v>
       </c>
       <c r="F29" s="5">
-        <f>+(F7/E7)-1</f>
+        <f t="shared" si="6"/>
         <v>1.4517330614805424E-2</v>
       </c>
       <c r="G29" s="5">
-        <f>+(G7/F7)-1</f>
+        <f t="shared" si="6"/>
         <v>2.7797907185715509E-2</v>
       </c>
       <c r="L29" s="8">
@@ -1152,11 +1152,11 @@
         <v>4.2370708388813502E-2</v>
       </c>
       <c r="M29" s="8">
-        <f t="shared" ref="M29:N29" si="4">+M28/M30</f>
+        <f t="shared" ref="M29:N29" si="7">+M28/M30</f>
         <v>8.6515539588699758E-2</v>
       </c>
       <c r="N29" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.10433477743922492</v>
       </c>
     </row>
@@ -1165,11 +1165,11 @@
         <v>6</v>
       </c>
       <c r="F30" s="5">
-        <f>+(F8/E8)-1</f>
+        <f t="shared" si="6"/>
         <v>0.13381040443836945</v>
       </c>
       <c r="G30" s="5">
-        <f>+(G8/F8)-1</f>
+        <f t="shared" si="6"/>
         <v>0.45516693614727832</v>
       </c>
       <c r="L30" s="4">
@@ -1177,11 +1177,11 @@
         <v>2333546.068965517</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" ref="M30:N30" si="5">+SUM(M31:M33)</f>
+        <f t="shared" ref="M30:N30" si="8">+SUM(M31:M33)</f>
         <v>1984186.8965517241</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1497199.7241379311</v>
       </c>
     </row>
@@ -1190,11 +1190,11 @@
         <v>7</v>
       </c>
       <c r="F31" s="5">
-        <f>+(F9/E9)-1</f>
+        <f t="shared" si="6"/>
         <v>0.16022033289426418</v>
       </c>
       <c r="G31" s="5">
-        <f>+(G9/F9)-1</f>
+        <f t="shared" si="6"/>
         <v>0.27747961605944882</v>
       </c>
       <c r="I31" t="s">
@@ -1224,11 +1224,11 @@
         <v>8</v>
       </c>
       <c r="F32" s="5">
-        <f>+(F10/E10)-1</f>
+        <f t="shared" si="6"/>
         <v>0.11938070839830695</v>
       </c>
       <c r="G32" s="5">
-        <f>+(G10/F10)-1</f>
+        <f t="shared" si="6"/>
         <v>0.19011323608430009</v>
       </c>
       <c r="J32" t="s">
@@ -1249,11 +1249,11 @@
         <v>9</v>
       </c>
       <c r="F33" s="5">
-        <f>+(F11/E11)-1</f>
+        <f t="shared" si="6"/>
         <v>1.8724109362054708E-2</v>
       </c>
       <c r="G33" s="5">
-        <f>+(G11/F11)-1</f>
+        <f t="shared" si="6"/>
         <v>0.14644328779006721</v>
       </c>
       <c r="J33" t="s">
@@ -1282,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="6">
-        <f>+(G3/E3)-1</f>
+        <f t="shared" ref="G36:G45" si="9">+(G3/E3)-1</f>
         <v>0.11252185546761662</v>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="6">
-        <f>+(G4/E4)-1</f>
+        <f t="shared" si="9"/>
         <v>1.1755536943979239E-2</v>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="G38" s="6">
-        <f>+(G5/E5)-1</f>
+        <f t="shared" si="9"/>
         <v>3.8515202604498811E-3</v>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
         <v>4</v>
       </c>
       <c r="G39" s="6">
-        <f>+(G6/E6)-1</f>
+        <f t="shared" si="9"/>
         <v>0.20351433944522812</v>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="6">
-        <f>+(G7/E7)-1</f>
+        <f t="shared" si="9"/>
         <v>4.2718789209535757E-2</v>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="G41" s="6">
-        <f>+(G8/E8)-1</f>
+        <f t="shared" si="9"/>
         <v>0.64988341239848846</v>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
         <v>6</v>
       </c>
       <c r="G42" s="6">
-        <f>+(G9/E9)-1</f>
+        <f t="shared" si="9"/>
         <v>0.48215782541013041</v>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
         <v>7</v>
       </c>
       <c r="G43" s="6">
-        <f>+(G10/E10)-1</f>
+        <f t="shared" si="9"/>
         <v>0.3321897972822454</v>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="G44" s="6">
-        <f>+(G11/E11)-1</f>
+        <f t="shared" si="9"/>
         <v>0.16790941728804198</v>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
         <v>9</v>
       </c>
       <c r="G45" s="6">
-        <f>+(G12/E12)-1</f>
+        <f t="shared" si="9"/>
         <v>1.4709063378758325E-2</v>
       </c>
     </row>
